--- a/0OCTAVO0/Data mining/minning/3_1/A3_1-ChristopherRojano.xlsx
+++ b/0OCTAVO0/Data mining/minning/3_1/A3_1-ChristopherRojano.xlsx
@@ -8,12 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\chris\Documents\0ESCUELA0\octavo\0OCTAVO0\Data mining\minning\3_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA492FB-7430-4752-A308-717B0325A10D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75145CA0-86AA-4B2E-8666-3C2004299219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7D02F4D3-9F76-466F-8A3D-12B9FBC086AD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="raiz" sheetId="4" r:id="rId1"/>
+    <sheet name="outlook(sunny)" sheetId="5" r:id="rId2"/>
+    <sheet name="outlook(overcast)" sheetId="6" r:id="rId3"/>
+    <sheet name="outlook(rainy)" sheetId="7" r:id="rId4"/>
+    <sheet name="arbol final" sheetId="9" r:id="rId5"/>
+    <sheet name="junto" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="69">
   <si>
     <t>info[9,5]</t>
   </si>
@@ -240,13 +245,16 @@
   </si>
   <si>
     <t>info[3,0][2,0]</t>
+  </si>
+  <si>
+    <t>info[3,0][0,2]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,6 +266,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -307,7 +323,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -382,57 +398,89 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color theme="9"/>
+      </left>
+      <right style="thick">
+        <color theme="9"/>
+      </right>
+      <top style="thick">
+        <color theme="9"/>
+      </top>
+      <bottom style="thick">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -453,6 +501,887 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>127001</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>179917</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>666751</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>148166</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Imagen 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAD097E9-75AE-C15C-7508-94F6D4A6D5C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1852084" y="2084917"/>
+          <a:ext cx="2645833" cy="2645833"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>42333</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>169334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>645583</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>106425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Imagen 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60544BCD-4199-9C40-D2EE-C703D9098DE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6159500" y="2074334"/>
+          <a:ext cx="2709334" cy="2995675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>465666</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>179917</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>177393</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Imagen 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAE922FF-7CE0-B2D9-EEF9-9638BFC63275}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10974916" y="2084917"/>
+          <a:ext cx="1957917" cy="2865560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>560916</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>148166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>325181</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>84665</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Imagen 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B9FB964-5A2D-5A45-7E69-BAC9702E3C5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15462249" y="2053166"/>
+          <a:ext cx="1870348" cy="2995083"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>455083</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>164776</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77E6FAE8-9C2D-0E10-1D09-D68D91FFF24E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="7565"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1979083" y="2095499"/>
+          <a:ext cx="3365500" cy="3223361"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>179915</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>684609</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56A92686-E057-71A0-0280-86BBE555760D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6773332" y="2084915"/>
+          <a:ext cx="2695444" cy="3450168"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>719667</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>31984</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagen 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E201910C-9170-CD43-8B9D-4F3B83D2B67A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11101917" y="2233083"/>
+          <a:ext cx="2794000" cy="3662068"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28219</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123376</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B1625A6-E6BF-A716-087C-79E257A5C23A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1533525" y="2247900"/>
+          <a:ext cx="2847619" cy="3590476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>32286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9896A00D-1850-700C-136D-4C9C6D05DB0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5924550" y="2257426"/>
+          <a:ext cx="2495550" cy="3299360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>638507</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>86194</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11DA125A-3445-DBC3-86F8-17F1971C591F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10191750" y="2247900"/>
+          <a:ext cx="2381582" cy="3362794"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495792</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>461</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A09A55D-9854-DB34-6236-AEE805B3E609}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1162050" y="2352675"/>
+          <a:ext cx="3524742" cy="3305636"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>143280</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>105286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F0F3D38-B3B8-A002-6DFD-A6E511A38290}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect t="7291"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5610225" y="2371725"/>
+          <a:ext cx="2905530" cy="3391411"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>286142</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>48089</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A1B41D4-873C-ECA9-500B-4E55DACFF1BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9734550" y="2381250"/>
+          <a:ext cx="2810267" cy="3324689"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>386291</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>734805</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FCD6463-83FC-49C7-84C5-420A0C0B03B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="6017"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5720291" y="1000125"/>
+          <a:ext cx="4920514" cy="4143375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>195792</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectángulo 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8E5C54B-9AF7-4D08-9E17-CE805826CF71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5476875" y="4143376"/>
+          <a:ext cx="2338917" cy="1085850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>91017</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>277284</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectángulo 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A52A695-A7B9-432F-A8D2-D509C90ABC0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7711017" y="2647950"/>
+          <a:ext cx="948267" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>172509</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>225425</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectángulo 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{224AA01C-7859-4860-9F90-DB90D32EB545}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8554509" y="4124325"/>
+          <a:ext cx="2338916" cy="1085850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1184,21 +2113,949 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC3A850-4253-4032-A019-E833B0AFAB4C}">
+  <dimension ref="C2:T39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="5" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" style="5" customWidth="1"/>
+    <col min="19" max="19" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="I2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <f>-9/14*LOG(9/14,2)-5/14*LOG(5/14,2)</f>
+        <v>0.94028595867063092</v>
+      </c>
+    </row>
+    <row r="4" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="3:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="H5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="M5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="R5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+    </row>
+    <row r="6" spans="3:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="22">
+        <f>-2/5*LOG(2/5,2)-3/5*LOG(3/5,2)</f>
+        <v>0.97095059445466858</v>
+      </c>
+      <c r="F6" s="19"/>
+      <c r="H6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1">
+        <f>-2/4*LOG(2/4,2)-2/4*LOG(2/4,2)</f>
+        <v>1</v>
+      </c>
+      <c r="K6" s="19"/>
+      <c r="M6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O6" s="1">
+        <f>-3/7*LOG(3/7,2)-4/7*LOG(4/7,2)</f>
+        <v>0.98522813603425163</v>
+      </c>
+      <c r="P6" s="19"/>
+      <c r="R6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T6" s="1">
+        <f>-6/8*LOG(6/8,2)-2/8*LOG(2/8,2)</f>
+        <v>0.81127812445913283</v>
+      </c>
+    </row>
+    <row r="7" spans="3:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="22">
+        <v>0</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="H7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="1">
+        <f>-4/6*LOG(4/6,2)-2/6*LOG(2/6,2)</f>
+        <v>0.91829583405448956</v>
+      </c>
+      <c r="K7" s="19"/>
+      <c r="M7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O7" s="1">
+        <f>-6/7*LOG(6/7,2)-1/7*LOG(1/7,2)</f>
+        <v>0.59167277858232747</v>
+      </c>
+      <c r="P7" s="19"/>
+      <c r="R7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T7" s="1">
+        <f>-3/6*LOG(3/6,2)-3/6*LOG(3/6,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="3:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="22">
+        <f>-3/5*LOG(3/5,2)-2/5*LOG(2/5,2)</f>
+        <v>0.97095059445466858</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="H8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="1">
+        <f>-3/4*LOG(3/4,2)-1/4*LOG(1/4,2)</f>
+        <v>0.81127812445913283</v>
+      </c>
+      <c r="K8" s="19"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O8" s="1">
+        <f>7/14*O6+7/14*O7</f>
+        <v>0.78845045730828955</v>
+      </c>
+      <c r="P8" s="19"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T8" s="1">
+        <f>8/14*T6+6/14*T7</f>
+        <v>0.89215892826236165</v>
+      </c>
+    </row>
+    <row r="9" spans="3:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="24"/>
+      <c r="D9" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="22">
+        <f>5/14*E6+0+5/14*E8</f>
+        <v>0.69353613889619181</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="1">
+        <f>4/14*J6+6/14*J7+4/14*J8</f>
+        <v>0.91106339301167627</v>
+      </c>
+      <c r="K9" s="19"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="19"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="3:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="24"/>
+      <c r="D10" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="25">
+        <f>J2-E9</f>
+        <v>0.24674981977443911</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="1">
+        <f>J2-J9</f>
+        <v>2.9222565658954647E-2</v>
+      </c>
+      <c r="K10" s="19"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O10" s="1">
+        <f>J2-O8</f>
+        <v>0.15183550136234136</v>
+      </c>
+      <c r="P10" s="19"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T10" s="1">
+        <f>J2-T8</f>
+        <v>4.8127030408269267E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H31"/>
+      <c r="M31"/>
+      <c r="R31"/>
+    </row>
+    <row r="32" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H32"/>
+      <c r="M32"/>
+      <c r="R32"/>
+    </row>
+    <row r="33" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H33"/>
+      <c r="M33"/>
+      <c r="R33"/>
+    </row>
+    <row r="34" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H34"/>
+      <c r="M34"/>
+      <c r="R34"/>
+    </row>
+    <row r="35" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H35"/>
+      <c r="M35"/>
+      <c r="R35"/>
+    </row>
+    <row r="36" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H36"/>
+      <c r="M36"/>
+      <c r="R36"/>
+    </row>
+    <row r="37" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H37"/>
+      <c r="M37"/>
+      <c r="R37"/>
+    </row>
+    <row r="38" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H38"/>
+      <c r="M38"/>
+      <c r="R38"/>
+    </row>
+    <row r="39" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="L39" s="5"/>
+      <c r="M39"/>
+      <c r="P39" s="5"/>
+      <c r="R39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="R8:R10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="H9:H10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF968D7B-8695-4AC3-8D29-1E287F25D785}">
+  <dimension ref="C3:O12"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.5703125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="5" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <f>-2/5*LOG(2/5,2)-3/5*LOG(3/5,2)</f>
+        <v>0.97095059445466858</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3"/>
+      <c r="K3" s="5"/>
+      <c r="M3"/>
+    </row>
+    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="G4" s="5"/>
+      <c r="H4"/>
+      <c r="K4" s="5"/>
+      <c r="M4"/>
+    </row>
+    <row r="5" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="5"/>
+      <c r="H5"/>
+      <c r="K5" s="5"/>
+      <c r="M5"/>
+    </row>
+    <row r="6" spans="3:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="H6" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="M6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+    </row>
+    <row r="7" spans="3:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="22">
+        <v>0</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" s="1">
+        <f>-2/3*LOG(2/3,2)-1/3*LOG(1/3,2)</f>
+        <v>0.91829583405448956</v>
+      </c>
+    </row>
+    <row r="8" spans="3:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1">
+        <f>-1/2*LOG(1/2,2)-1/2*LOG(1/2,2)</f>
+        <v>1</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="22">
+        <v>0</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" s="1">
+        <f>-1/2*LOG(1/2,2)-1/2*LOG(1/2,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="21"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="3:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="6"/>
+      <c r="D10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="1">
+        <f>2/5*E7+2/5*E8+1/5*E9</f>
+        <v>0.4</v>
+      </c>
+      <c r="H10" s="21"/>
+      <c r="I10" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="22">
+        <f>3/5*J7+2/5*J8</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="6"/>
+      <c r="N10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O10" s="1">
+        <f>3/5*O7+2/5*O8</f>
+        <v>0.95097750043269369</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="6"/>
+      <c r="D11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="1">
+        <f>E3-E10</f>
+        <v>0.57095059445466856</v>
+      </c>
+      <c r="H11" s="21"/>
+      <c r="I11" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="22">
+        <f>F3-J10</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="6"/>
+      <c r="N11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O11" s="1">
+        <f>G3-O10</f>
+        <v>-0.95097750043269369</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="5"/>
+      <c r="H12"/>
+      <c r="K12" s="5"/>
+      <c r="M12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="M6:O6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2891051F-D3E4-4FAD-84FA-FA1E8C319431}">
+  <dimension ref="C3:O11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C3" s="5"/>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="H6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="M6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+    </row>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="H7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="19"/>
+      <c r="M7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="H8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="19"/>
+      <c r="M8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="19"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C10" s="6"/>
+      <c r="D10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="1">
+        <f>2/3*E7+2/5*E8+1/5*E9</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" s="1">
+        <f>3/5*J7+2/5*J8</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="19"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O10" s="1">
+        <f>3/5*O7+2/5*O8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C11" s="6"/>
+      <c r="D11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="1">
+        <f>E3-E10</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="1">
+        <f>E3-J10</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="19"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O11" s="1">
+        <f>E3-O10</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="M6:O6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{445CEA75-1CC0-46CB-83C5-5EF45F93E818}">
+  <dimension ref="C3:O12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C3" s="5"/>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <f>-2/5*LOG(2/5,2)-3/5*LOG(3/5,2)</f>
+        <v>0.97095059445466858</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="3:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="H6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="M6" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+    </row>
+    <row r="7" spans="3:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="1">
+        <f>-1/2*LOG(1/2,2)-1/2*LOG(1/2,2)</f>
+        <v>1</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N7" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="O7" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="1">
+        <f>-2/3*LOG(2/3,2)-1/3*LOG(1/3,2)</f>
+        <v>0.91829583405448956</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="1">
+        <f>-2/3*LOG(2/3,2)-1/3*LOG(1/3,2)</f>
+        <v>0.91829583405448956</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="N8" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="O8" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="1">
+        <f>-1/2*LOG(1/2,2)-1/2*LOG(1/2,2)</f>
+        <v>1</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+    </row>
+    <row r="10" spans="3:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="6"/>
+      <c r="D10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="1">
+        <f>0*E7+3/5*E8+2/5*E9</f>
+        <v>0.95097750043269369</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" s="1">
+        <f>2/5*J7+3/5*J8</f>
+        <v>0.95097750043269369</v>
+      </c>
+      <c r="M10" s="21"/>
+      <c r="N10" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="O10" s="22">
+        <f>3/5*O7+2/5*O8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="6"/>
+      <c r="D11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="1">
+        <f>E3-E10</f>
+        <v>1.9973094021974891E-2</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="1">
+        <f>E3-J10</f>
+        <v>1.9973094021974891E-2</v>
+      </c>
+      <c r="M11" s="21"/>
+      <c r="N11" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="O11" s="22">
+        <f>E3-O10</f>
+        <v>0.97095059445466858</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="M6:O6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11A296A-72B4-4B61-BFC2-06166D07B42A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{291B71AA-6C4E-45FD-BCA5-EE8CB5DF1741}">
   <dimension ref="B2:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="5" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="5" customWidth="1"/>
     <col min="7" max="7" width="17.85546875" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="11" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="5" customWidth="1"/>
     <col min="11" max="11" width="17.85546875" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" style="11" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" style="5" customWidth="1"/>
     <col min="15" max="15" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1212,40 +3069,39 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="F5" s="3" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="F5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="J5" s="4" t="s">
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="J5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="N5" s="5" t="s">
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="N5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="4">
         <f>-2/5*LOG(2/5,2)-3/5*LOG(3/5,2)</f>
         <v>0.97095059445466858</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -1255,8 +3111,7 @@
         <f>-2/4*LOG(2/4,2)-2/4*LOG(2/4,2)</f>
         <v>1</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="6" t="s">
         <v>25</v>
       </c>
       <c r="K6" s="1" t="s">
@@ -1266,8 +3121,7 @@
         <f>-3/7*LOG(3/7,2)-4/7*LOG(4/7,2)</f>
         <v>0.98522813603425163</v>
       </c>
-      <c r="M6" s="6"/>
-      <c r="N6" s="12" t="s">
+      <c r="N6" s="6" t="s">
         <v>27</v>
       </c>
       <c r="O6" s="1" t="s">
@@ -1279,17 +3133,16 @@
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="9">
-        <v>0</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="12" t="s">
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>23</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -1299,8 +3152,7 @@
         <f>-4/6*LOG(4/6,2)-2/6*LOG(2/6,2)</f>
         <v>0.91829583405448956</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="6" t="s">
         <v>26</v>
       </c>
       <c r="K7" s="1" t="s">
@@ -1310,8 +3162,7 @@
         <f>-6/7*LOG(6/7,2)-1/7*LOG(1/7,2)</f>
         <v>0.59167277858232747</v>
       </c>
-      <c r="M7" s="6"/>
-      <c r="N7" s="12" t="s">
+      <c r="N7" s="6" t="s">
         <v>28</v>
       </c>
       <c r="O7" s="1" t="s">
@@ -1323,18 +3174,17 @@
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="4">
         <f>-3/5*LOG(3/5,2)-2/5*LOG(2/5,2)</f>
         <v>0.97095059445466858</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="6" t="s">
         <v>24</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -1344,8 +3194,7 @@
         <f>-3/4*LOG(3/4,2)-1/4*LOG(1/4,2)</f>
         <v>0.81127812445913283</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="13"/>
+      <c r="J8" s="14"/>
       <c r="K8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1353,8 +3202,7 @@
         <f>7/14*L6+7/14*L7</f>
         <v>0.78845045730828955</v>
       </c>
-      <c r="M8" s="6"/>
-      <c r="N8" s="13"/>
+      <c r="N8" s="14"/>
       <c r="O8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1364,16 +3212,15 @@
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="17"/>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="4">
         <f>5/14*D6+0+5/14*D8</f>
         <v>0.69353613889619181</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="13"/>
+      <c r="F9" s="14"/>
       <c r="G9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1381,26 +3228,23 @@
         <f>4/14*H6+6/14*H7+4/14*H8</f>
         <v>0.91106339301167627</v>
       </c>
-      <c r="I9" s="6"/>
       <c r="J9" s="15"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="6"/>
       <c r="N9" s="15"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="17"/>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="4">
         <f>H2-D9</f>
         <v>0.24674981977443911</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="14"/>
+      <c r="F10" s="16"/>
       <c r="G10" s="1" t="s">
         <v>34</v>
       </c>
@@ -1408,8 +3252,7 @@
         <f>H2-H9</f>
         <v>2.9222565658954647E-2</v>
       </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="14"/>
+      <c r="J10" s="16"/>
       <c r="K10" s="1" t="s">
         <v>34</v>
       </c>
@@ -1417,8 +3260,7 @@
         <f>H2-L8</f>
         <v>0.15183550136234136</v>
       </c>
-      <c r="M10" s="6"/>
-      <c r="N10" s="14"/>
+      <c r="N10" s="16"/>
       <c r="O10" s="1" t="s">
         <v>34</v>
       </c>
@@ -1428,33 +3270,33 @@
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="3">
         <f>-2/5*LOG(2/5,2)-3/5*LOG(3/5,2)</f>
         <v>0.97095059445466858</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="J16" s="10" t="s">
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="J16" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="N16" s="5" t="s">
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="N16" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
     </row>
     <row r="17" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G17" s="1" t="s">
@@ -1463,16 +3305,16 @@
       <c r="H17" s="1">
         <v>0</v>
       </c>
-      <c r="J17" s="16" t="s">
+      <c r="J17" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K17" s="9" t="s">
+      <c r="K17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L17" s="9">
-        <v>0</v>
-      </c>
-      <c r="N17" s="12" t="s">
+      <c r="L17" s="4">
+        <v>0</v>
+      </c>
+      <c r="N17" s="6" t="s">
         <v>44</v>
       </c>
       <c r="O17" s="1" t="s">
@@ -1484,7 +3326,7 @@
       </c>
     </row>
     <row r="18" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="6" t="s">
         <v>40</v>
       </c>
       <c r="G18" s="1" t="s">
@@ -1494,16 +3336,16 @@
         <f>-1/2*LOG(1/2,2)-1/2*LOG(1/2,2)</f>
         <v>1</v>
       </c>
-      <c r="J18" s="16" t="s">
+      <c r="J18" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="K18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L18" s="9">
-        <v>0</v>
-      </c>
-      <c r="N18" s="12" t="s">
+      <c r="L18" s="4">
+        <v>0</v>
+      </c>
+      <c r="N18" s="6" t="s">
         <v>45</v>
       </c>
       <c r="O18" s="1" t="s">
@@ -1515,7 +3357,7 @@
       </c>
     </row>
     <row r="19" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="6" t="s">
         <v>41</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -1524,15 +3366,15 @@
       <c r="H19" s="1">
         <v>0</v>
       </c>
-      <c r="J19" s="16"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="N19" s="12"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="N19" s="6"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F20" s="12"/>
+      <c r="F20" s="6"/>
       <c r="G20" s="1" t="s">
         <v>36</v>
       </c>
@@ -1540,15 +3382,15 @@
         <f>2/5*H17+2/5*H18+1/5*H19</f>
         <v>0.4</v>
       </c>
-      <c r="J20" s="16"/>
-      <c r="K20" s="9" t="s">
+      <c r="J20" s="7"/>
+      <c r="K20" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L20" s="9">
+      <c r="L20" s="4">
         <f>3/5*L17+2/5*L18</f>
         <v>0</v>
       </c>
-      <c r="N20" s="12"/>
+      <c r="N20" s="6"/>
       <c r="O20" s="1" t="s">
         <v>38</v>
       </c>
@@ -1558,7 +3400,7 @@
       </c>
     </row>
     <row r="21" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F21" s="12"/>
+      <c r="F21" s="6"/>
       <c r="G21" s="1" t="s">
         <v>34</v>
       </c>
@@ -1566,15 +3408,15 @@
         <f>H14-H20</f>
         <v>0.57095059445466856</v>
       </c>
-      <c r="J21" s="16"/>
-      <c r="K21" s="9" t="s">
+      <c r="J21" s="7"/>
+      <c r="K21" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L21" s="4">
         <f>H14-L20</f>
         <v>0.97095059445466858</v>
       </c>
-      <c r="N21" s="12"/>
+      <c r="N21" s="6"/>
       <c r="O21" s="1" t="s">
         <v>34</v>
       </c>
@@ -1584,32 +3426,32 @@
       </c>
     </row>
     <row r="25" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="J27" s="4" t="s">
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="J27" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="N27" s="5" t="s">
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="N27" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
     </row>
     <row r="28" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F28" s="12" t="s">
+      <c r="F28" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G28" s="1" t="s">
@@ -1618,7 +3460,7 @@
       <c r="H28" s="1">
         <v>0</v>
       </c>
-      <c r="J28" s="12" t="s">
+      <c r="J28" s="6" t="s">
         <v>49</v>
       </c>
       <c r="K28" s="1" t="s">
@@ -1627,7 +3469,7 @@
       <c r="L28" s="1">
         <v>0</v>
       </c>
-      <c r="N28" s="12" t="s">
+      <c r="N28" s="6" t="s">
         <v>51</v>
       </c>
       <c r="O28" s="1" t="s">
@@ -1638,7 +3480,7 @@
       </c>
     </row>
     <row r="29" spans="6:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="F29" s="12" t="s">
+      <c r="F29" s="6" t="s">
         <v>47</v>
       </c>
       <c r="G29" s="1" t="s">
@@ -1647,7 +3489,7 @@
       <c r="H29" s="1">
         <v>0</v>
       </c>
-      <c r="J29" s="12" t="s">
+      <c r="J29" s="6" t="s">
         <v>50</v>
       </c>
       <c r="K29" s="1" t="s">
@@ -1656,7 +3498,7 @@
       <c r="L29" s="1">
         <v>0</v>
       </c>
-      <c r="N29" s="12" t="s">
+      <c r="N29" s="6" t="s">
         <v>52</v>
       </c>
       <c r="O29" s="1" t="s">
@@ -1665,12 +3507,12 @@
       <c r="P29" s="1">
         <v>0</v>
       </c>
-      <c r="R29" s="18" t="s">
+      <c r="R29" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="30" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F30" s="12" t="s">
+      <c r="F30" s="6" t="s">
         <v>48</v>
       </c>
       <c r="G30" s="1" t="s">
@@ -1679,15 +3521,15 @@
       <c r="H30" s="1">
         <v>0</v>
       </c>
-      <c r="J30" s="12"/>
+      <c r="J30" s="6"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="N30" s="12"/>
+      <c r="N30" s="6"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
     </row>
     <row r="31" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F31" s="12"/>
+      <c r="F31" s="6"/>
       <c r="G31" s="1" t="s">
         <v>53</v>
       </c>
@@ -1695,7 +3537,7 @@
         <f>2/3*H28+2/5*H29+1/5*H30</f>
         <v>0</v>
       </c>
-      <c r="J31" s="12"/>
+      <c r="J31" s="6"/>
       <c r="K31" s="1" t="s">
         <v>54</v>
       </c>
@@ -1703,7 +3545,7 @@
         <f>3/5*L28+2/5*L29</f>
         <v>0</v>
       </c>
-      <c r="N31" s="12"/>
+      <c r="N31" s="6"/>
       <c r="O31" s="1" t="s">
         <v>54</v>
       </c>
@@ -1713,7 +3555,7 @@
       </c>
     </row>
     <row r="32" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F32" s="12"/>
+      <c r="F32" s="6"/>
       <c r="G32" s="1" t="s">
         <v>34</v>
       </c>
@@ -1721,7 +3563,7 @@
         <f>H25-H31</f>
         <v>0</v>
       </c>
-      <c r="J32" s="12"/>
+      <c r="J32" s="6"/>
       <c r="K32" s="1" t="s">
         <v>34</v>
       </c>
@@ -1729,7 +3571,7 @@
         <f>H25-L31</f>
         <v>0</v>
       </c>
-      <c r="N32" s="12"/>
+      <c r="N32" s="6"/>
       <c r="O32" s="1" t="s">
         <v>34</v>
       </c>
@@ -1739,33 +3581,33 @@
       </c>
     </row>
     <row r="36" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="G36" s="7" t="s">
+      <c r="G36" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36" s="3">
         <f>-2/5*LOG(2/5,2)-3/5*LOG(3/5,2)</f>
         <v>0.97095059445466858</v>
       </c>
     </row>
     <row r="38" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="J38" s="4" t="s">
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="J38" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="N38" s="19" t="s">
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="N38" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="O38" s="19"/>
-      <c r="P38" s="19"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
     </row>
     <row r="39" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F39" s="12" t="s">
+      <c r="F39" s="6" t="s">
         <v>56</v>
       </c>
       <c r="G39" s="1" t="s">
@@ -1774,7 +3616,7 @@
       <c r="H39" s="1">
         <v>0</v>
       </c>
-      <c r="J39" s="12" t="s">
+      <c r="J39" s="6" t="s">
         <v>59</v>
       </c>
       <c r="K39" s="1" t="s">
@@ -1784,18 +3626,18 @@
         <f>-1/2*LOG(1/2,2)-1/2*LOG(1/2,2)</f>
         <v>1</v>
       </c>
-      <c r="N39" s="16" t="s">
+      <c r="N39" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="O39" s="9" t="s">
+      <c r="O39" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="P39" s="9">
+      <c r="P39" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F40" s="12" t="s">
+      <c r="F40" s="6" t="s">
         <v>57</v>
       </c>
       <c r="G40" s="1" t="s">
@@ -1805,7 +3647,7 @@
         <f>-2/3*LOG(2/3,2)-1/3*LOG(1/3,2)</f>
         <v>0.91829583405448956</v>
       </c>
-      <c r="J40" s="12" t="s">
+      <c r="J40" s="6" t="s">
         <v>60</v>
       </c>
       <c r="K40" s="1" t="s">
@@ -1815,18 +3657,18 @@
         <f>-2/3*LOG(2/3,2)-1/3*LOG(1/3,2)</f>
         <v>0.91829583405448956</v>
       </c>
-      <c r="N40" s="16" t="s">
+      <c r="N40" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="O40" s="9" t="s">
+      <c r="O40" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P40" s="9">
+      <c r="P40" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F41" s="12" t="s">
+      <c r="F41" s="6" t="s">
         <v>58</v>
       </c>
       <c r="G41" s="1" t="s">
@@ -1836,15 +3678,15 @@
         <f>-1/2*LOG(1/2,2)-1/2*LOG(1/2,2)</f>
         <v>1</v>
       </c>
-      <c r="J41" s="12"/>
+      <c r="J41" s="6"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="9"/>
-      <c r="P41" s="9"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
     </row>
     <row r="42" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F42" s="12"/>
+      <c r="F42" s="6"/>
       <c r="G42" s="1" t="s">
         <v>64</v>
       </c>
@@ -1852,7 +3694,7 @@
         <f>0*H39+3/5*H40+2/5*H41</f>
         <v>0.95097750043269369</v>
       </c>
-      <c r="J42" s="12"/>
+      <c r="J42" s="6"/>
       <c r="K42" s="1" t="s">
         <v>65</v>
       </c>
@@ -1860,17 +3702,17 @@
         <f>2/5*L39+3/5*L40</f>
         <v>0.95097750043269369</v>
       </c>
-      <c r="N42" s="16"/>
-      <c r="O42" s="9" t="s">
+      <c r="N42" s="7"/>
+      <c r="O42" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="P42" s="9">
+      <c r="P42" s="4">
         <f>3/5*P39+2/5*P40</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F43" s="12"/>
+      <c r="F43" s="6"/>
       <c r="G43" s="1" t="s">
         <v>34</v>
       </c>
@@ -1878,7 +3720,7 @@
         <f>H36-H42</f>
         <v>1.9973094021974891E-2</v>
       </c>
-      <c r="J43" s="12"/>
+      <c r="J43" s="6"/>
       <c r="K43" s="1" t="s">
         <v>34</v>
       </c>
@@ -1886,23 +3728,21 @@
         <f>H36-L42</f>
         <v>1.9973094021974891E-2</v>
       </c>
-      <c r="N43" s="16"/>
-      <c r="O43" s="9" t="s">
+      <c r="N43" s="7"/>
+      <c r="O43" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="P43" s="9">
+      <c r="P43" s="4">
         <f>H36-P42</f>
         <v>0.97095059445466858</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N5:P5"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="J8:J10"/>
     <mergeCell ref="F9:F10"/>
@@ -1910,10 +3750,12 @@
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="N16:P16"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="N27:P27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/0OCTAVO0/Data mining/minning/3_1/A3_1-ChristopherRojano.xlsx
+++ b/0OCTAVO0/Data mining/minning/3_1/A3_1-ChristopherRojano.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\chris\Documents\0ESCUELA0\octavo\0OCTAVO0\Data mining\minning\3_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75145CA0-86AA-4B2E-8666-3C2004299219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F32F7F2-7FF8-41BD-A432-54EE7E2B30B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7D02F4D3-9F76-466F-8A3D-12B9FBC086AD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{7D02F4D3-9F76-466F-8A3D-12B9FBC086AD}"/>
   </bookViews>
   <sheets>
     <sheet name="raiz" sheetId="4" r:id="rId1"/>
@@ -417,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -435,20 +435,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -459,28 +461,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2116,7 +2115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC3A850-4253-4032-A019-E833B0AFAB4C}">
   <dimension ref="C2:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2143,39 +2142,38 @@
     </row>
     <row r="4" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="3:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="H5" s="9" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="H5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="M5" s="10" t="s">
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="M5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="R5" s="12" t="s">
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="R5" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
     </row>
     <row r="6" spans="3:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="10">
         <f>-2/5*LOG(2/5,2)-3/5*LOG(3/5,2)</f>
         <v>0.97095059445466858</v>
       </c>
-      <c r="F6" s="19"/>
       <c r="H6" s="6" t="s">
         <v>22</v>
       </c>
@@ -2186,7 +2184,6 @@
         <f>-2/4*LOG(2/4,2)-2/4*LOG(2/4,2)</f>
         <v>1</v>
       </c>
-      <c r="K6" s="19"/>
       <c r="M6" s="6" t="s">
         <v>25</v>
       </c>
@@ -2197,7 +2194,6 @@
         <f>-3/7*LOG(3/7,2)-4/7*LOG(4/7,2)</f>
         <v>0.98522813603425163</v>
       </c>
-      <c r="P6" s="19"/>
       <c r="R6" s="6" t="s">
         <v>27</v>
       </c>
@@ -2210,16 +2206,15 @@
       </c>
     </row>
     <row r="7" spans="3:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="22">
-        <v>0</v>
-      </c>
-      <c r="F7" s="19"/>
+      <c r="E7" s="10">
+        <v>0</v>
+      </c>
       <c r="H7" s="6" t="s">
         <v>23</v>
       </c>
@@ -2230,7 +2225,6 @@
         <f>-4/6*LOG(4/6,2)-2/6*LOG(2/6,2)</f>
         <v>0.91829583405448956</v>
       </c>
-      <c r="K7" s="19"/>
       <c r="M7" s="6" t="s">
         <v>26</v>
       </c>
@@ -2241,7 +2235,6 @@
         <f>-6/7*LOG(6/7,2)-1/7*LOG(1/7,2)</f>
         <v>0.59167277858232747</v>
       </c>
-      <c r="P7" s="19"/>
       <c r="R7" s="6" t="s">
         <v>28</v>
       </c>
@@ -2254,17 +2247,16 @@
       </c>
     </row>
     <row r="8" spans="3:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="10">
         <f>-3/5*LOG(3/5,2)-2/5*LOG(2/5,2)</f>
         <v>0.97095059445466858</v>
       </c>
-      <c r="F8" s="19"/>
       <c r="H8" s="6" t="s">
         <v>24</v>
       </c>
@@ -2275,8 +2267,7 @@
         <f>-3/4*LOG(3/4,2)-1/4*LOG(1/4,2)</f>
         <v>0.81127812445913283</v>
       </c>
-      <c r="K8" s="19"/>
-      <c r="M8" s="14"/>
+      <c r="M8" s="16"/>
       <c r="N8" s="1" t="s">
         <v>8</v>
       </c>
@@ -2284,8 +2275,7 @@
         <f>7/14*O6+7/14*O7</f>
         <v>0.78845045730828955</v>
       </c>
-      <c r="P8" s="19"/>
-      <c r="R8" s="14"/>
+      <c r="R8" s="16"/>
       <c r="S8" s="1" t="s">
         <v>11</v>
       </c>
@@ -2295,16 +2285,15 @@
       </c>
     </row>
     <row r="9" spans="3:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="24"/>
-      <c r="D9" s="22" t="s">
+      <c r="C9" s="19"/>
+      <c r="D9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="10">
         <f>5/14*E6+0+5/14*E8</f>
         <v>0.69353613889619181</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="H9" s="14"/>
+      <c r="H9" s="16"/>
       <c r="I9" s="1" t="s">
         <v>5</v>
       </c>
@@ -2312,26 +2301,23 @@
         <f>4/14*J6+6/14*J7+4/14*J8</f>
         <v>0.91106339301167627</v>
       </c>
-      <c r="K9" s="19"/>
-      <c r="M9" s="15"/>
+      <c r="M9" s="17"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="19"/>
-      <c r="R9" s="15"/>
+      <c r="R9" s="17"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
     <row r="10" spans="3:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="24"/>
-      <c r="D10" s="22" t="s">
+      <c r="C10" s="19"/>
+      <c r="D10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="11">
         <f>J2-E9</f>
         <v>0.24674981977443911</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="H10" s="16"/>
+      <c r="H10" s="18"/>
       <c r="I10" s="1" t="s">
         <v>34</v>
       </c>
@@ -2339,8 +2325,7 @@
         <f>J2-J9</f>
         <v>2.9222565658954647E-2</v>
       </c>
-      <c r="K10" s="19"/>
-      <c r="M10" s="16"/>
+      <c r="M10" s="18"/>
       <c r="N10" s="1" t="s">
         <v>34</v>
       </c>
@@ -2348,8 +2333,7 @@
         <f>J2-O8</f>
         <v>0.15183550136234136</v>
       </c>
-      <c r="P10" s="19"/>
-      <c r="R10" s="16"/>
+      <c r="R10" s="18"/>
       <c r="S10" s="1" t="s">
         <v>34</v>
       </c>
@@ -2426,7 +2410,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF968D7B-8695-4AC3-8D29-1E287F25D785}">
   <dimension ref="C3:O12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2464,21 +2450,21 @@
       <c r="M5"/>
     </row>
     <row r="6" spans="3:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
       <c r="H6" s="20" t="s">
         <v>17</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
     </row>
     <row r="7" spans="3:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="6" t="s">
@@ -2490,13 +2476,13 @@
       <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="10">
         <v>0</v>
       </c>
       <c r="M7" s="6" t="s">
@@ -2521,13 +2507,13 @@
         <f>-1/2*LOG(1/2,2)-1/2*LOG(1/2,2)</f>
         <v>1</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="10">
         <v>0</v>
       </c>
       <c r="M8" s="6" t="s">
@@ -2551,9 +2537,9 @@
       <c r="E9" s="1">
         <v>0</v>
       </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
       <c r="M9" s="6"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -2567,11 +2553,11 @@
         <f>2/5*E7+2/5*E8+1/5*E9</f>
         <v>0.4</v>
       </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="22" t="s">
+      <c r="H10" s="9"/>
+      <c r="I10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J10" s="10">
         <f>3/5*J7+2/5*J8</f>
         <v>0</v>
       </c>
@@ -2593,21 +2579,21 @@
         <f>E3-E10</f>
         <v>0.57095059445466856</v>
       </c>
-      <c r="H11" s="21"/>
-      <c r="I11" s="22" t="s">
+      <c r="H11" s="9"/>
+      <c r="I11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="22">
-        <f>F3-J10</f>
-        <v>0</v>
+      <c r="J11" s="10">
+        <f>E3-J10</f>
+        <v>0.97095059445466858</v>
       </c>
       <c r="M11" s="6"/>
       <c r="N11" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O11" s="1">
-        <f>G3-O10</f>
-        <v>-0.95097750043269369</v>
+        <f>E3-O10</f>
+        <v>1.9973094021974891E-2</v>
       </c>
     </row>
     <row r="12" spans="3:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -2632,7 +2618,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2891051F-D3E4-4FAD-84FA-FA1E8C319431}">
   <dimension ref="C3:O11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2666,21 +2654,21 @@
       <c r="M5" s="5"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="H6" s="10" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="H6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="M6" s="12" t="s">
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="M6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
     </row>
     <row r="7" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C7" s="6" t="s">
@@ -2692,7 +2680,6 @@
       <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="F7" s="19"/>
       <c r="H7" s="6" t="s">
         <v>49</v>
       </c>
@@ -2702,7 +2689,6 @@
       <c r="J7" s="1">
         <v>0</v>
       </c>
-      <c r="K7" s="19"/>
       <c r="M7" s="6" t="s">
         <v>51</v>
       </c>
@@ -2723,7 +2709,6 @@
       <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="F8" s="19"/>
       <c r="H8" s="6" t="s">
         <v>50</v>
       </c>
@@ -2733,7 +2718,6 @@
       <c r="J8" s="1">
         <v>0</v>
       </c>
-      <c r="K8" s="19"/>
       <c r="M8" s="6" t="s">
         <v>52</v>
       </c>
@@ -2754,11 +2738,9 @@
       <c r="E9" s="1">
         <v>0</v>
       </c>
-      <c r="F9" s="19"/>
       <c r="H9" s="6"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="19"/>
       <c r="M9" s="6"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -2772,7 +2754,6 @@
         <f>2/3*E7+2/5*E8+1/5*E9</f>
         <v>0</v>
       </c>
-      <c r="F10" s="19"/>
       <c r="H10" s="6"/>
       <c r="I10" s="1" t="s">
         <v>54</v>
@@ -2781,7 +2762,6 @@
         <f>3/5*J7+2/5*J8</f>
         <v>0</v>
       </c>
-      <c r="K10" s="19"/>
       <c r="M10" s="6"/>
       <c r="N10" s="1" t="s">
         <v>54</v>
@@ -2800,7 +2780,6 @@
         <f>E3-E10</f>
         <v>0</v>
       </c>
-      <c r="F11" s="19"/>
       <c r="H11" s="6"/>
       <c r="I11" s="1" t="s">
         <v>34</v>
@@ -2809,7 +2788,6 @@
         <f>E3-J10</f>
         <v>0</v>
       </c>
-      <c r="K11" s="19"/>
       <c r="M11" s="6"/>
       <c r="N11" s="1" t="s">
         <v>34</v>
@@ -2834,7 +2812,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{445CEA75-1CC0-46CB-83C5-5EF45F93E818}">
   <dimension ref="C3:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2868,21 +2848,21 @@
       <c r="M5" s="5"/>
     </row>
     <row r="6" spans="3:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="H6" s="10" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="H6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="M6" s="26" t="s">
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="M6" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
     </row>
     <row r="7" spans="3:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="6" t="s">
@@ -2904,13 +2884,13 @@
         <f>-1/2*LOG(1/2,2)-1/2*LOG(1/2,2)</f>
         <v>1</v>
       </c>
-      <c r="M7" s="21" t="s">
+      <c r="M7" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="N7" s="22" t="s">
+      <c r="N7" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="O7" s="22">
+      <c r="O7" s="10">
         <v>0</v>
       </c>
     </row>
@@ -2935,13 +2915,13 @@
         <f>-2/3*LOG(2/3,2)-1/3*LOG(1/3,2)</f>
         <v>0.91829583405448956</v>
       </c>
-      <c r="M8" s="21" t="s">
+      <c r="M8" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="N8" s="22" t="s">
+      <c r="N8" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="O8" s="22">
+      <c r="O8" s="10">
         <v>0</v>
       </c>
     </row>
@@ -2959,9 +2939,9 @@
       <c r="H9" s="6"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
     </row>
     <row r="10" spans="3:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="6"/>
@@ -2980,11 +2960,11 @@
         <f>2/5*J7+3/5*J8</f>
         <v>0.95097750043269369</v>
       </c>
-      <c r="M10" s="21"/>
-      <c r="N10" s="22" t="s">
+      <c r="M10" s="9"/>
+      <c r="N10" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="O10" s="22">
+      <c r="O10" s="10">
         <f>3/5*O7+2/5*O8</f>
         <v>0</v>
       </c>
@@ -3006,11 +2986,11 @@
         <f>E3-J10</f>
         <v>1.9973094021974891E-2</v>
       </c>
-      <c r="M11" s="21"/>
-      <c r="N11" s="22" t="s">
+      <c r="M11" s="9"/>
+      <c r="N11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="O11" s="22">
+      <c r="O11" s="10">
         <f>E3-O10</f>
         <v>0.97095059445466858</v>
       </c>
@@ -3069,26 +3049,26 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="F5" s="9" t="s">
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="F5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="J5" s="10" t="s">
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="J5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="N5" s="12" t="s">
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="N5" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
@@ -3194,7 +3174,7 @@
         <f>-3/4*LOG(3/4,2)-1/4*LOG(1/4,2)</f>
         <v>0.81127812445913283</v>
       </c>
-      <c r="J8" s="14"/>
+      <c r="J8" s="16"/>
       <c r="K8" s="1" t="s">
         <v>8</v>
       </c>
@@ -3202,7 +3182,7 @@
         <f>7/14*L6+7/14*L7</f>
         <v>0.78845045730828955</v>
       </c>
-      <c r="N8" s="14"/>
+      <c r="N8" s="16"/>
       <c r="O8" s="1" t="s">
         <v>11</v>
       </c>
@@ -3212,7 +3192,7 @@
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="13"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="4" t="s">
         <v>14</v>
       </c>
@@ -3220,7 +3200,7 @@
         <f>5/14*D6+0+5/14*D8</f>
         <v>0.69353613889619181</v>
       </c>
-      <c r="F9" s="14"/>
+      <c r="F9" s="16"/>
       <c r="G9" s="1" t="s">
         <v>5</v>
       </c>
@@ -3228,15 +3208,15 @@
         <f>4/14*H6+6/14*H7+4/14*H8</f>
         <v>0.91106339301167627</v>
       </c>
-      <c r="J9" s="15"/>
+      <c r="J9" s="17"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="N9" s="15"/>
+      <c r="N9" s="17"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="13"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="4" t="s">
         <v>34</v>
       </c>
@@ -3244,7 +3224,7 @@
         <f>H2-D9</f>
         <v>0.24674981977443911</v>
       </c>
-      <c r="F10" s="16"/>
+      <c r="F10" s="18"/>
       <c r="G10" s="1" t="s">
         <v>34</v>
       </c>
@@ -3252,7 +3232,7 @@
         <f>H2-H9</f>
         <v>2.9222565658954647E-2</v>
       </c>
-      <c r="J10" s="16"/>
+      <c r="J10" s="18"/>
       <c r="K10" s="1" t="s">
         <v>34</v>
       </c>
@@ -3260,7 +3240,7 @@
         <f>H2-L8</f>
         <v>0.15183550136234136</v>
       </c>
-      <c r="N10" s="16"/>
+      <c r="N10" s="18"/>
       <c r="O10" s="1" t="s">
         <v>34</v>
       </c>
@@ -3279,21 +3259,21 @@
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="J16" s="17" t="s">
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="J16" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="N16" s="12" t="s">
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="N16" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
     </row>
     <row r="17" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F17" s="6" t="s">
@@ -3434,21 +3414,21 @@
       </c>
     </row>
     <row r="27" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="J27" s="10" t="s">
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="J27" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="N27" s="12" t="s">
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="N27" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
     </row>
     <row r="28" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F28" s="6" t="s">
@@ -3590,21 +3570,21 @@
       </c>
     </row>
     <row r="38" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="J38" s="10" t="s">
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="J38" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="N38" s="11" t="s">
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="N38" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="25"/>
     </row>
     <row r="39" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F39" s="6" t="s">
@@ -3739,14 +3719,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="N8:N10"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="N16:P16"/>
@@ -3756,6 +3728,14 @@
     <mergeCell ref="F27:H27"/>
     <mergeCell ref="J27:L27"/>
     <mergeCell ref="N27:P27"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="N8:N10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/0OCTAVO0/Data mining/minning/3_1/A3_1-ChristopherRojano.xlsx
+++ b/0OCTAVO0/Data mining/minning/3_1/A3_1-ChristopherRojano.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\chris\Documents\0ESCUELA0\octavo\0OCTAVO0\Data mining\minning\3_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F32F7F2-7FF8-41BD-A432-54EE7E2B30B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FD8DDE-9834-4BBC-AD05-E63D7C032A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{7D02F4D3-9F76-466F-8A3D-12B9FBC086AD}"/>
   </bookViews>
@@ -470,17 +470,17 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2619,7 +2619,7 @@
   <dimension ref="C3:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2813,7 +2813,7 @@
   <dimension ref="C3:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2891,6 +2891,7 @@
         <v>66</v>
       </c>
       <c r="O7" s="10">
+        <f>-3/3*LOG(3/3,2)-0</f>
         <v>0</v>
       </c>
     </row>
@@ -2922,6 +2923,7 @@
         <v>35</v>
       </c>
       <c r="O8" s="10">
+        <f>-2/2*LOG(2/2,2)-0</f>
         <v>0</v>
       </c>
     </row>
@@ -3049,11 +3051,11 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
       <c r="F5" s="13" t="s">
         <v>16</v>
       </c>
@@ -3192,7 +3194,7 @@
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="23"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="4" t="s">
         <v>14</v>
       </c>
@@ -3216,7 +3218,7 @@
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="23"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="4" t="s">
         <v>34</v>
       </c>
@@ -3264,11 +3266,11 @@
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
-      <c r="J16" s="24" t="s">
+      <c r="J16" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
       <c r="N16" s="15" t="s">
         <v>18</v>
       </c>
@@ -3580,11 +3582,11 @@
       </c>
       <c r="K38" s="14"/>
       <c r="L38" s="14"/>
-      <c r="N38" s="25" t="s">
+      <c r="N38" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="O38" s="25"/>
-      <c r="P38" s="25"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="23"/>
     </row>
     <row r="39" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F39" s="6" t="s">
@@ -3719,6 +3721,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="N8:N10"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="N16:P16"/>
@@ -3728,14 +3738,6 @@
     <mergeCell ref="F27:H27"/>
     <mergeCell ref="J27:L27"/>
     <mergeCell ref="N27:P27"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="N8:N10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
